--- a/projeto/Cronograma Samuel Moro Lumertz.xlsx
+++ b/projeto/Cronograma Samuel Moro Lumertz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Desktop\semestre 3\Orientado a objetos\projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A438C5-3747-4C9B-9664-837FAE0EE9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523CA487-FE1A-443A-AF71-0BE4B302086E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2102,6 +2102,45 @@
     <xf numFmtId="0" fontId="5" fillId="25" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2111,15 +2150,6 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2157,36 +2187,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2443,8 +2443,8 @@
   <dimension ref="B1:DC34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2744,106 +2744,106 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="170" t="s">
+      <c r="H6" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="171"/>
-      <c r="J6" s="171"/>
-      <c r="K6" s="171"/>
-      <c r="L6" s="171"/>
-      <c r="M6" s="171"/>
-      <c r="N6" s="171"/>
-      <c r="O6" s="171"/>
-      <c r="P6" s="171"/>
-      <c r="Q6" s="171"/>
-      <c r="R6" s="171"/>
-      <c r="S6" s="171"/>
-      <c r="T6" s="171"/>
-      <c r="U6" s="171"/>
-      <c r="V6" s="171"/>
-      <c r="W6" s="171"/>
-      <c r="X6" s="171"/>
-      <c r="Y6" s="171"/>
-      <c r="Z6" s="172"/>
-      <c r="AA6" s="170" t="s">
+      <c r="I6" s="184"/>
+      <c r="J6" s="184"/>
+      <c r="K6" s="184"/>
+      <c r="L6" s="184"/>
+      <c r="M6" s="184"/>
+      <c r="N6" s="184"/>
+      <c r="O6" s="184"/>
+      <c r="P6" s="184"/>
+      <c r="Q6" s="184"/>
+      <c r="R6" s="184"/>
+      <c r="S6" s="184"/>
+      <c r="T6" s="184"/>
+      <c r="U6" s="184"/>
+      <c r="V6" s="184"/>
+      <c r="W6" s="184"/>
+      <c r="X6" s="184"/>
+      <c r="Y6" s="184"/>
+      <c r="Z6" s="185"/>
+      <c r="AA6" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="AB6" s="171"/>
-      <c r="AC6" s="171"/>
-      <c r="AD6" s="171"/>
-      <c r="AE6" s="171"/>
-      <c r="AF6" s="171"/>
-      <c r="AG6" s="171"/>
-      <c r="AH6" s="171"/>
-      <c r="AI6" s="171"/>
-      <c r="AJ6" s="171"/>
-      <c r="AK6" s="171"/>
-      <c r="AL6" s="171"/>
-      <c r="AM6" s="171"/>
-      <c r="AN6" s="171"/>
-      <c r="AO6" s="171"/>
-      <c r="AP6" s="171"/>
-      <c r="AQ6" s="171"/>
-      <c r="AR6" s="171"/>
-      <c r="AS6" s="171"/>
-      <c r="AT6" s="171"/>
-      <c r="AU6" s="172"/>
-      <c r="AV6" s="170" t="s">
+      <c r="AB6" s="184"/>
+      <c r="AC6" s="184"/>
+      <c r="AD6" s="184"/>
+      <c r="AE6" s="184"/>
+      <c r="AF6" s="184"/>
+      <c r="AG6" s="184"/>
+      <c r="AH6" s="184"/>
+      <c r="AI6" s="184"/>
+      <c r="AJ6" s="184"/>
+      <c r="AK6" s="184"/>
+      <c r="AL6" s="184"/>
+      <c r="AM6" s="184"/>
+      <c r="AN6" s="184"/>
+      <c r="AO6" s="184"/>
+      <c r="AP6" s="184"/>
+      <c r="AQ6" s="184"/>
+      <c r="AR6" s="184"/>
+      <c r="AS6" s="184"/>
+      <c r="AT6" s="184"/>
+      <c r="AU6" s="185"/>
+      <c r="AV6" s="183" t="s">
         <v>58</v>
       </c>
-      <c r="AW6" s="171"/>
-      <c r="AX6" s="171"/>
-      <c r="AY6" s="171"/>
-      <c r="AZ6" s="171"/>
-      <c r="BA6" s="171"/>
-      <c r="BB6" s="171"/>
-      <c r="BC6" s="171"/>
-      <c r="BD6" s="171"/>
-      <c r="BE6" s="171"/>
-      <c r="BF6" s="171"/>
-      <c r="BG6" s="171"/>
-      <c r="BH6" s="171"/>
-      <c r="BI6" s="171"/>
-      <c r="BJ6" s="171"/>
-      <c r="BK6" s="171"/>
-      <c r="BL6" s="171"/>
-      <c r="BM6" s="171"/>
-      <c r="BN6" s="171"/>
-      <c r="BO6" s="171"/>
-      <c r="BP6" s="171"/>
-      <c r="BQ6" s="172"/>
-      <c r="BR6" s="170" t="s">
+      <c r="AW6" s="184"/>
+      <c r="AX6" s="184"/>
+      <c r="AY6" s="184"/>
+      <c r="AZ6" s="184"/>
+      <c r="BA6" s="184"/>
+      <c r="BB6" s="184"/>
+      <c r="BC6" s="184"/>
+      <c r="BD6" s="184"/>
+      <c r="BE6" s="184"/>
+      <c r="BF6" s="184"/>
+      <c r="BG6" s="184"/>
+      <c r="BH6" s="184"/>
+      <c r="BI6" s="184"/>
+      <c r="BJ6" s="184"/>
+      <c r="BK6" s="184"/>
+      <c r="BL6" s="184"/>
+      <c r="BM6" s="184"/>
+      <c r="BN6" s="184"/>
+      <c r="BO6" s="184"/>
+      <c r="BP6" s="184"/>
+      <c r="BQ6" s="185"/>
+      <c r="BR6" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="BS6" s="171"/>
-      <c r="BT6" s="171"/>
-      <c r="BU6" s="171"/>
-      <c r="BV6" s="171"/>
-      <c r="BW6" s="171"/>
-      <c r="BX6" s="171"/>
-      <c r="BY6" s="171"/>
-      <c r="BZ6" s="171"/>
-      <c r="CA6" s="171"/>
-      <c r="CB6" s="171"/>
-      <c r="CC6" s="171"/>
-      <c r="CD6" s="171"/>
-      <c r="CE6" s="171"/>
-      <c r="CF6" s="171"/>
-      <c r="CG6" s="171"/>
-      <c r="CH6" s="171"/>
-      <c r="CI6" s="171"/>
-      <c r="CJ6" s="171"/>
-      <c r="CK6" s="171"/>
-      <c r="CL6" s="171"/>
-      <c r="CM6" s="172"/>
-      <c r="CN6" s="192" t="s">
+      <c r="BS6" s="184"/>
+      <c r="BT6" s="184"/>
+      <c r="BU6" s="184"/>
+      <c r="BV6" s="184"/>
+      <c r="BW6" s="184"/>
+      <c r="BX6" s="184"/>
+      <c r="BY6" s="184"/>
+      <c r="BZ6" s="184"/>
+      <c r="CA6" s="184"/>
+      <c r="CB6" s="184"/>
+      <c r="CC6" s="184"/>
+      <c r="CD6" s="184"/>
+      <c r="CE6" s="184"/>
+      <c r="CF6" s="184"/>
+      <c r="CG6" s="184"/>
+      <c r="CH6" s="184"/>
+      <c r="CI6" s="184"/>
+      <c r="CJ6" s="184"/>
+      <c r="CK6" s="184"/>
+      <c r="CL6" s="184"/>
+      <c r="CM6" s="185"/>
+      <c r="CN6" s="173" t="s">
         <v>60</v>
       </c>
-      <c r="CO6" s="193"/>
-      <c r="CP6" s="193"/>
-      <c r="CQ6" s="193"/>
-      <c r="CR6" s="193"/>
-      <c r="CS6" s="194"/>
+      <c r="CO6" s="174"/>
+      <c r="CP6" s="174"/>
+      <c r="CQ6" s="174"/>
+      <c r="CR6" s="174"/>
+      <c r="CS6" s="175"/>
       <c r="CT6" s="59"/>
       <c r="CU6" s="59"/>
       <c r="CV6" s="59"/>
@@ -3138,104 +3138,104 @@
       <c r="DC7" s="58"/>
     </row>
     <row r="8" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H8" s="182" t="s">
+      <c r="H8" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="183"/>
-      <c r="J8" s="183"/>
-      <c r="K8" s="183"/>
-      <c r="L8" s="183"/>
-      <c r="M8" s="183"/>
-      <c r="N8" s="183"/>
-      <c r="O8" s="183"/>
-      <c r="P8" s="183"/>
-      <c r="Q8" s="183"/>
-      <c r="R8" s="183"/>
-      <c r="S8" s="183"/>
-      <c r="T8" s="183"/>
-      <c r="U8" s="183"/>
-      <c r="V8" s="183"/>
-      <c r="W8" s="183"/>
-      <c r="X8" s="183"/>
-      <c r="Y8" s="183"/>
-      <c r="Z8" s="183"/>
-      <c r="AA8" s="183"/>
-      <c r="AB8" s="195" t="s">
+      <c r="I8" s="193"/>
+      <c r="J8" s="193"/>
+      <c r="K8" s="193"/>
+      <c r="L8" s="193"/>
+      <c r="M8" s="193"/>
+      <c r="N8" s="193"/>
+      <c r="O8" s="193"/>
+      <c r="P8" s="193"/>
+      <c r="Q8" s="193"/>
+      <c r="R8" s="193"/>
+      <c r="S8" s="193"/>
+      <c r="T8" s="193"/>
+      <c r="U8" s="193"/>
+      <c r="V8" s="193"/>
+      <c r="W8" s="193"/>
+      <c r="X8" s="193"/>
+      <c r="Y8" s="193"/>
+      <c r="Z8" s="193"/>
+      <c r="AA8" s="193"/>
+      <c r="AB8" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="AC8" s="195"/>
-      <c r="AD8" s="195"/>
-      <c r="AE8" s="195"/>
-      <c r="AF8" s="195"/>
-      <c r="AG8" s="195"/>
-      <c r="AH8" s="195"/>
-      <c r="AI8" s="195"/>
-      <c r="AJ8" s="195"/>
-      <c r="AK8" s="195"/>
-      <c r="AL8" s="195"/>
-      <c r="AM8" s="195"/>
-      <c r="AN8" s="195"/>
-      <c r="AO8" s="195"/>
-      <c r="AP8" s="195"/>
-      <c r="AQ8" s="196" t="s">
+      <c r="AC8" s="176"/>
+      <c r="AD8" s="176"/>
+      <c r="AE8" s="176"/>
+      <c r="AF8" s="176"/>
+      <c r="AG8" s="176"/>
+      <c r="AH8" s="176"/>
+      <c r="AI8" s="176"/>
+      <c r="AJ8" s="176"/>
+      <c r="AK8" s="176"/>
+      <c r="AL8" s="176"/>
+      <c r="AM8" s="176"/>
+      <c r="AN8" s="176"/>
+      <c r="AO8" s="176"/>
+      <c r="AP8" s="176"/>
+      <c r="AQ8" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="AR8" s="196"/>
-      <c r="AS8" s="196"/>
-      <c r="AT8" s="196"/>
-      <c r="AU8" s="196"/>
-      <c r="AV8" s="196"/>
-      <c r="AW8" s="196"/>
-      <c r="AX8" s="196"/>
-      <c r="AY8" s="196"/>
-      <c r="AZ8" s="196"/>
-      <c r="BA8" s="196"/>
-      <c r="BB8" s="196"/>
-      <c r="BC8" s="196"/>
-      <c r="BD8" s="196"/>
-      <c r="BE8" s="196"/>
-      <c r="BF8" s="196"/>
-      <c r="BG8" s="196"/>
-      <c r="BH8" s="196"/>
-      <c r="BI8" s="196"/>
-      <c r="BJ8" s="196"/>
-      <c r="BK8" s="196"/>
-      <c r="BL8" s="196"/>
-      <c r="BM8" s="196"/>
-      <c r="BN8" s="196"/>
-      <c r="BO8" s="196"/>
-      <c r="BP8" s="196"/>
-      <c r="BQ8" s="196"/>
-      <c r="BR8" s="196"/>
-      <c r="BS8" s="196"/>
-      <c r="BT8" s="196"/>
-      <c r="BU8" s="196"/>
-      <c r="BV8" s="196"/>
-      <c r="BW8" s="196"/>
-      <c r="BX8" s="196"/>
-      <c r="BY8" s="196"/>
-      <c r="BZ8" s="197" t="s">
+      <c r="AR8" s="177"/>
+      <c r="AS8" s="177"/>
+      <c r="AT8" s="177"/>
+      <c r="AU8" s="177"/>
+      <c r="AV8" s="177"/>
+      <c r="AW8" s="177"/>
+      <c r="AX8" s="177"/>
+      <c r="AY8" s="177"/>
+      <c r="AZ8" s="177"/>
+      <c r="BA8" s="177"/>
+      <c r="BB8" s="177"/>
+      <c r="BC8" s="177"/>
+      <c r="BD8" s="177"/>
+      <c r="BE8" s="177"/>
+      <c r="BF8" s="177"/>
+      <c r="BG8" s="177"/>
+      <c r="BH8" s="177"/>
+      <c r="BI8" s="177"/>
+      <c r="BJ8" s="177"/>
+      <c r="BK8" s="177"/>
+      <c r="BL8" s="177"/>
+      <c r="BM8" s="177"/>
+      <c r="BN8" s="177"/>
+      <c r="BO8" s="177"/>
+      <c r="BP8" s="177"/>
+      <c r="BQ8" s="177"/>
+      <c r="BR8" s="177"/>
+      <c r="BS8" s="177"/>
+      <c r="BT8" s="177"/>
+      <c r="BU8" s="177"/>
+      <c r="BV8" s="177"/>
+      <c r="BW8" s="177"/>
+      <c r="BX8" s="177"/>
+      <c r="BY8" s="177"/>
+      <c r="BZ8" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="CA8" s="197"/>
-      <c r="CB8" s="197"/>
-      <c r="CC8" s="197"/>
-      <c r="CD8" s="197"/>
-      <c r="CE8" s="197"/>
-      <c r="CF8" s="197"/>
-      <c r="CG8" s="197"/>
-      <c r="CH8" s="197"/>
-      <c r="CI8" s="197"/>
-      <c r="CJ8" s="197"/>
-      <c r="CK8" s="197"/>
-      <c r="CL8" s="197"/>
-      <c r="CM8" s="197"/>
-      <c r="CN8" s="197"/>
-      <c r="CO8" s="197"/>
-      <c r="CP8" s="197"/>
-      <c r="CQ8" s="197"/>
-      <c r="CR8" s="197"/>
-      <c r="CS8" s="198"/>
+      <c r="CA8" s="178"/>
+      <c r="CB8" s="178"/>
+      <c r="CC8" s="178"/>
+      <c r="CD8" s="178"/>
+      <c r="CE8" s="178"/>
+      <c r="CF8" s="178"/>
+      <c r="CG8" s="178"/>
+      <c r="CH8" s="178"/>
+      <c r="CI8" s="178"/>
+      <c r="CJ8" s="178"/>
+      <c r="CK8" s="178"/>
+      <c r="CL8" s="178"/>
+      <c r="CM8" s="178"/>
+      <c r="CN8" s="178"/>
+      <c r="CO8" s="178"/>
+      <c r="CP8" s="178"/>
+      <c r="CQ8" s="178"/>
+      <c r="CR8" s="178"/>
+      <c r="CS8" s="179"/>
     </row>
     <row r="9" spans="2:107" x14ac:dyDescent="0.25">
       <c r="B9" s="34" t="s">
@@ -3256,132 +3256,132 @@
       <c r="G9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="176" t="s">
+      <c r="H9" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="177"/>
-      <c r="J9" s="177"/>
-      <c r="K9" s="177"/>
-      <c r="L9" s="178"/>
-      <c r="M9" s="179" t="s">
+      <c r="I9" s="187"/>
+      <c r="J9" s="187"/>
+      <c r="K9" s="187"/>
+      <c r="L9" s="188"/>
+      <c r="M9" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="180"/>
-      <c r="O9" s="180"/>
-      <c r="P9" s="180"/>
-      <c r="Q9" s="178"/>
-      <c r="R9" s="179" t="s">
+      <c r="N9" s="190"/>
+      <c r="O9" s="190"/>
+      <c r="P9" s="190"/>
+      <c r="Q9" s="188"/>
+      <c r="R9" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="180"/>
-      <c r="T9" s="180"/>
-      <c r="U9" s="180"/>
-      <c r="V9" s="181"/>
-      <c r="W9" s="179" t="s">
+      <c r="S9" s="190"/>
+      <c r="T9" s="190"/>
+      <c r="U9" s="190"/>
+      <c r="V9" s="191"/>
+      <c r="W9" s="189" t="s">
         <v>17</v>
       </c>
-      <c r="X9" s="180"/>
-      <c r="Y9" s="180"/>
-      <c r="Z9" s="180"/>
-      <c r="AA9" s="181"/>
-      <c r="AB9" s="184" t="s">
+      <c r="X9" s="190"/>
+      <c r="Y9" s="190"/>
+      <c r="Z9" s="190"/>
+      <c r="AA9" s="191"/>
+      <c r="AB9" s="194" t="s">
         <v>18</v>
       </c>
-      <c r="AC9" s="185"/>
-      <c r="AD9" s="185"/>
-      <c r="AE9" s="185"/>
-      <c r="AF9" s="186"/>
-      <c r="AG9" s="184" t="s">
+      <c r="AC9" s="195"/>
+      <c r="AD9" s="195"/>
+      <c r="AE9" s="195"/>
+      <c r="AF9" s="196"/>
+      <c r="AG9" s="194" t="s">
         <v>19</v>
       </c>
-      <c r="AH9" s="185"/>
-      <c r="AI9" s="185"/>
-      <c r="AJ9" s="185"/>
-      <c r="AK9" s="187"/>
-      <c r="AL9" s="184" t="s">
+      <c r="AH9" s="195"/>
+      <c r="AI9" s="195"/>
+      <c r="AJ9" s="195"/>
+      <c r="AK9" s="197"/>
+      <c r="AL9" s="194" t="s">
         <v>20</v>
       </c>
-      <c r="AM9" s="185"/>
-      <c r="AN9" s="185"/>
-      <c r="AO9" s="185"/>
-      <c r="AP9" s="187"/>
-      <c r="AQ9" s="173" t="s">
+      <c r="AM9" s="195"/>
+      <c r="AN9" s="195"/>
+      <c r="AO9" s="195"/>
+      <c r="AP9" s="197"/>
+      <c r="AQ9" s="180" t="s">
         <v>21</v>
       </c>
-      <c r="AR9" s="174"/>
-      <c r="AS9" s="174"/>
-      <c r="AT9" s="174"/>
-      <c r="AU9" s="188"/>
-      <c r="AV9" s="173" t="s">
+      <c r="AR9" s="181"/>
+      <c r="AS9" s="181"/>
+      <c r="AT9" s="181"/>
+      <c r="AU9" s="198"/>
+      <c r="AV9" s="180" t="s">
         <v>22</v>
       </c>
-      <c r="AW9" s="174"/>
-      <c r="AX9" s="174"/>
-      <c r="AY9" s="174"/>
-      <c r="AZ9" s="175"/>
-      <c r="BA9" s="173" t="s">
+      <c r="AW9" s="181"/>
+      <c r="AX9" s="181"/>
+      <c r="AY9" s="181"/>
+      <c r="AZ9" s="182"/>
+      <c r="BA9" s="180" t="s">
         <v>23</v>
       </c>
-      <c r="BB9" s="174"/>
-      <c r="BC9" s="174"/>
-      <c r="BD9" s="174"/>
-      <c r="BE9" s="175"/>
-      <c r="BF9" s="173" t="s">
+      <c r="BB9" s="181"/>
+      <c r="BC9" s="181"/>
+      <c r="BD9" s="181"/>
+      <c r="BE9" s="182"/>
+      <c r="BF9" s="180" t="s">
         <v>24</v>
       </c>
-      <c r="BG9" s="174"/>
-      <c r="BH9" s="174"/>
-      <c r="BI9" s="174"/>
-      <c r="BJ9" s="175"/>
-      <c r="BK9" s="173" t="s">
+      <c r="BG9" s="181"/>
+      <c r="BH9" s="181"/>
+      <c r="BI9" s="181"/>
+      <c r="BJ9" s="182"/>
+      <c r="BK9" s="180" t="s">
         <v>25</v>
       </c>
-      <c r="BL9" s="174"/>
-      <c r="BM9" s="174"/>
-      <c r="BN9" s="174"/>
-      <c r="BO9" s="175"/>
-      <c r="BP9" s="173" t="s">
+      <c r="BL9" s="181"/>
+      <c r="BM9" s="181"/>
+      <c r="BN9" s="181"/>
+      <c r="BO9" s="182"/>
+      <c r="BP9" s="180" t="s">
         <v>61</v>
       </c>
-      <c r="BQ9" s="174"/>
-      <c r="BR9" s="174"/>
-      <c r="BS9" s="174"/>
-      <c r="BT9" s="175"/>
-      <c r="BU9" s="173" t="s">
+      <c r="BQ9" s="181"/>
+      <c r="BR9" s="181"/>
+      <c r="BS9" s="181"/>
+      <c r="BT9" s="182"/>
+      <c r="BU9" s="180" t="s">
         <v>62</v>
       </c>
-      <c r="BV9" s="174"/>
-      <c r="BW9" s="174"/>
-      <c r="BX9" s="174"/>
-      <c r="BY9" s="175"/>
-      <c r="BZ9" s="189" t="s">
+      <c r="BV9" s="181"/>
+      <c r="BW9" s="181"/>
+      <c r="BX9" s="181"/>
+      <c r="BY9" s="182"/>
+      <c r="BZ9" s="170" t="s">
         <v>63</v>
       </c>
-      <c r="CA9" s="190"/>
-      <c r="CB9" s="190"/>
-      <c r="CC9" s="190"/>
-      <c r="CD9" s="191"/>
-      <c r="CE9" s="189" t="s">
+      <c r="CA9" s="171"/>
+      <c r="CB9" s="171"/>
+      <c r="CC9" s="171"/>
+      <c r="CD9" s="172"/>
+      <c r="CE9" s="170" t="s">
         <v>64</v>
       </c>
-      <c r="CF9" s="190"/>
-      <c r="CG9" s="190"/>
-      <c r="CH9" s="190"/>
-      <c r="CI9" s="191"/>
-      <c r="CJ9" s="189" t="s">
+      <c r="CF9" s="171"/>
+      <c r="CG9" s="171"/>
+      <c r="CH9" s="171"/>
+      <c r="CI9" s="172"/>
+      <c r="CJ9" s="170" t="s">
         <v>65</v>
       </c>
-      <c r="CK9" s="190"/>
-      <c r="CL9" s="190"/>
-      <c r="CM9" s="190"/>
-      <c r="CN9" s="191"/>
-      <c r="CO9" s="189" t="s">
+      <c r="CK9" s="171"/>
+      <c r="CL9" s="171"/>
+      <c r="CM9" s="171"/>
+      <c r="CN9" s="172"/>
+      <c r="CO9" s="170" t="s">
         <v>66</v>
       </c>
-      <c r="CP9" s="190"/>
-      <c r="CQ9" s="190"/>
-      <c r="CR9" s="190"/>
-      <c r="CS9" s="191"/>
+      <c r="CP9" s="171"/>
+      <c r="CQ9" s="171"/>
+      <c r="CR9" s="171"/>
+      <c r="CS9" s="172"/>
     </row>
     <row r="10" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="39" t="s">
@@ -4456,7 +4456,7 @@
         <v>4</v>
       </c>
       <c r="G18" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="7"/>
@@ -5654,17 +5654,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="CO9:CS9"/>
-    <mergeCell ref="CN6:CS6"/>
-    <mergeCell ref="AB8:AP8"/>
-    <mergeCell ref="AQ8:BY8"/>
-    <mergeCell ref="BZ8:CS8"/>
-    <mergeCell ref="BP9:BT9"/>
-    <mergeCell ref="BU9:BY9"/>
-    <mergeCell ref="BZ9:CD9"/>
-    <mergeCell ref="CE9:CI9"/>
-    <mergeCell ref="CJ9:CN9"/>
-    <mergeCell ref="AV9:AZ9"/>
     <mergeCell ref="H6:Z6"/>
     <mergeCell ref="AA6:AU6"/>
     <mergeCell ref="AV6:BQ6"/>
@@ -5681,6 +5670,17 @@
     <mergeCell ref="AG9:AK9"/>
     <mergeCell ref="AL9:AP9"/>
     <mergeCell ref="AQ9:AU9"/>
+    <mergeCell ref="CO9:CS9"/>
+    <mergeCell ref="CN6:CS6"/>
+    <mergeCell ref="AB8:AP8"/>
+    <mergeCell ref="AQ8:BY8"/>
+    <mergeCell ref="BZ8:CS8"/>
+    <mergeCell ref="BP9:BT9"/>
+    <mergeCell ref="BU9:BY9"/>
+    <mergeCell ref="BZ9:CD9"/>
+    <mergeCell ref="CE9:CI9"/>
+    <mergeCell ref="CJ9:CN9"/>
+    <mergeCell ref="AV9:AZ9"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G11:G28">

--- a/projeto/Cronograma Samuel Moro Lumertz.xlsx
+++ b/projeto/Cronograma Samuel Moro Lumertz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Desktop\semestre 3\Orientado a objetos\projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523CA487-FE1A-443A-AF71-0BE4B302086E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B02B5F6-E68A-4D9A-99FE-FA0F4A9D12E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2443,8 +2443,8 @@
   <dimension ref="B1:DC34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
+      <pane ySplit="10" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4567,7 +4567,7 @@
         <v>4</v>
       </c>
       <c r="G19" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="7"/>

--- a/projeto/Cronograma Samuel Moro Lumertz.xlsx
+++ b/projeto/Cronograma Samuel Moro Lumertz.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Desktop\semestre 3\Orientado a objetos\projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B02B5F6-E68A-4D9A-99FE-FA0F4A9D12E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7A9908-8180-423C-AAF1-29FA5CDFC280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="78">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>Últimos Ajustes</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -2102,6 +2105,63 @@
     <xf numFmtId="0" fontId="5" fillId="25" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2130,63 +2190,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2442,9 +2445,9 @@
   </sheetPr>
   <dimension ref="B1:DC34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AB1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2744,106 +2747,106 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="183" t="s">
+      <c r="H6" s="170" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="184"/>
-      <c r="J6" s="184"/>
-      <c r="K6" s="184"/>
-      <c r="L6" s="184"/>
-      <c r="M6" s="184"/>
-      <c r="N6" s="184"/>
-      <c r="O6" s="184"/>
-      <c r="P6" s="184"/>
-      <c r="Q6" s="184"/>
-      <c r="R6" s="184"/>
-      <c r="S6" s="184"/>
-      <c r="T6" s="184"/>
-      <c r="U6" s="184"/>
-      <c r="V6" s="184"/>
-      <c r="W6" s="184"/>
-      <c r="X6" s="184"/>
-      <c r="Y6" s="184"/>
-      <c r="Z6" s="185"/>
-      <c r="AA6" s="183" t="s">
+      <c r="I6" s="171"/>
+      <c r="J6" s="171"/>
+      <c r="K6" s="171"/>
+      <c r="L6" s="171"/>
+      <c r="M6" s="171"/>
+      <c r="N6" s="171"/>
+      <c r="O6" s="171"/>
+      <c r="P6" s="171"/>
+      <c r="Q6" s="171"/>
+      <c r="R6" s="171"/>
+      <c r="S6" s="171"/>
+      <c r="T6" s="171"/>
+      <c r="U6" s="171"/>
+      <c r="V6" s="171"/>
+      <c r="W6" s="171"/>
+      <c r="X6" s="171"/>
+      <c r="Y6" s="171"/>
+      <c r="Z6" s="172"/>
+      <c r="AA6" s="170" t="s">
         <v>57</v>
       </c>
-      <c r="AB6" s="184"/>
-      <c r="AC6" s="184"/>
-      <c r="AD6" s="184"/>
-      <c r="AE6" s="184"/>
-      <c r="AF6" s="184"/>
-      <c r="AG6" s="184"/>
-      <c r="AH6" s="184"/>
-      <c r="AI6" s="184"/>
-      <c r="AJ6" s="184"/>
-      <c r="AK6" s="184"/>
-      <c r="AL6" s="184"/>
-      <c r="AM6" s="184"/>
-      <c r="AN6" s="184"/>
-      <c r="AO6" s="184"/>
-      <c r="AP6" s="184"/>
-      <c r="AQ6" s="184"/>
-      <c r="AR6" s="184"/>
-      <c r="AS6" s="184"/>
-      <c r="AT6" s="184"/>
-      <c r="AU6" s="185"/>
-      <c r="AV6" s="183" t="s">
+      <c r="AB6" s="171"/>
+      <c r="AC6" s="171"/>
+      <c r="AD6" s="171"/>
+      <c r="AE6" s="171"/>
+      <c r="AF6" s="171"/>
+      <c r="AG6" s="171"/>
+      <c r="AH6" s="171"/>
+      <c r="AI6" s="171"/>
+      <c r="AJ6" s="171"/>
+      <c r="AK6" s="171"/>
+      <c r="AL6" s="171"/>
+      <c r="AM6" s="171"/>
+      <c r="AN6" s="171"/>
+      <c r="AO6" s="171"/>
+      <c r="AP6" s="171"/>
+      <c r="AQ6" s="171"/>
+      <c r="AR6" s="171"/>
+      <c r="AS6" s="171"/>
+      <c r="AT6" s="171"/>
+      <c r="AU6" s="172"/>
+      <c r="AV6" s="170" t="s">
         <v>58</v>
       </c>
-      <c r="AW6" s="184"/>
-      <c r="AX6" s="184"/>
-      <c r="AY6" s="184"/>
-      <c r="AZ6" s="184"/>
-      <c r="BA6" s="184"/>
-      <c r="BB6" s="184"/>
-      <c r="BC6" s="184"/>
-      <c r="BD6" s="184"/>
-      <c r="BE6" s="184"/>
-      <c r="BF6" s="184"/>
-      <c r="BG6" s="184"/>
-      <c r="BH6" s="184"/>
-      <c r="BI6" s="184"/>
-      <c r="BJ6" s="184"/>
-      <c r="BK6" s="184"/>
-      <c r="BL6" s="184"/>
-      <c r="BM6" s="184"/>
-      <c r="BN6" s="184"/>
-      <c r="BO6" s="184"/>
-      <c r="BP6" s="184"/>
-      <c r="BQ6" s="185"/>
-      <c r="BR6" s="183" t="s">
+      <c r="AW6" s="171"/>
+      <c r="AX6" s="171"/>
+      <c r="AY6" s="171"/>
+      <c r="AZ6" s="171"/>
+      <c r="BA6" s="171"/>
+      <c r="BB6" s="171"/>
+      <c r="BC6" s="171"/>
+      <c r="BD6" s="171"/>
+      <c r="BE6" s="171"/>
+      <c r="BF6" s="171"/>
+      <c r="BG6" s="171"/>
+      <c r="BH6" s="171"/>
+      <c r="BI6" s="171"/>
+      <c r="BJ6" s="171"/>
+      <c r="BK6" s="171"/>
+      <c r="BL6" s="171"/>
+      <c r="BM6" s="171"/>
+      <c r="BN6" s="171"/>
+      <c r="BO6" s="171"/>
+      <c r="BP6" s="171"/>
+      <c r="BQ6" s="172"/>
+      <c r="BR6" s="170" t="s">
         <v>59</v>
       </c>
-      <c r="BS6" s="184"/>
-      <c r="BT6" s="184"/>
-      <c r="BU6" s="184"/>
-      <c r="BV6" s="184"/>
-      <c r="BW6" s="184"/>
-      <c r="BX6" s="184"/>
-      <c r="BY6" s="184"/>
-      <c r="BZ6" s="184"/>
-      <c r="CA6" s="184"/>
-      <c r="CB6" s="184"/>
-      <c r="CC6" s="184"/>
-      <c r="CD6" s="184"/>
-      <c r="CE6" s="184"/>
-      <c r="CF6" s="184"/>
-      <c r="CG6" s="184"/>
-      <c r="CH6" s="184"/>
-      <c r="CI6" s="184"/>
-      <c r="CJ6" s="184"/>
-      <c r="CK6" s="184"/>
-      <c r="CL6" s="184"/>
-      <c r="CM6" s="185"/>
-      <c r="CN6" s="173" t="s">
+      <c r="BS6" s="171"/>
+      <c r="BT6" s="171"/>
+      <c r="BU6" s="171"/>
+      <c r="BV6" s="171"/>
+      <c r="BW6" s="171"/>
+      <c r="BX6" s="171"/>
+      <c r="BY6" s="171"/>
+      <c r="BZ6" s="171"/>
+      <c r="CA6" s="171"/>
+      <c r="CB6" s="171"/>
+      <c r="CC6" s="171"/>
+      <c r="CD6" s="171"/>
+      <c r="CE6" s="171"/>
+      <c r="CF6" s="171"/>
+      <c r="CG6" s="171"/>
+      <c r="CH6" s="171"/>
+      <c r="CI6" s="171"/>
+      <c r="CJ6" s="171"/>
+      <c r="CK6" s="171"/>
+      <c r="CL6" s="171"/>
+      <c r="CM6" s="172"/>
+      <c r="CN6" s="192" t="s">
         <v>60</v>
       </c>
-      <c r="CO6" s="174"/>
-      <c r="CP6" s="174"/>
-      <c r="CQ6" s="174"/>
-      <c r="CR6" s="174"/>
-      <c r="CS6" s="175"/>
+      <c r="CO6" s="193"/>
+      <c r="CP6" s="193"/>
+      <c r="CQ6" s="193"/>
+      <c r="CR6" s="193"/>
+      <c r="CS6" s="194"/>
       <c r="CT6" s="59"/>
       <c r="CU6" s="59"/>
       <c r="CV6" s="59"/>
@@ -3138,104 +3141,104 @@
       <c r="DC7" s="58"/>
     </row>
     <row r="8" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H8" s="192" t="s">
+      <c r="H8" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="193"/>
-      <c r="J8" s="193"/>
-      <c r="K8" s="193"/>
-      <c r="L8" s="193"/>
-      <c r="M8" s="193"/>
-      <c r="N8" s="193"/>
-      <c r="O8" s="193"/>
-      <c r="P8" s="193"/>
-      <c r="Q8" s="193"/>
-      <c r="R8" s="193"/>
-      <c r="S8" s="193"/>
-      <c r="T8" s="193"/>
-      <c r="U8" s="193"/>
-      <c r="V8" s="193"/>
-      <c r="W8" s="193"/>
-      <c r="X8" s="193"/>
-      <c r="Y8" s="193"/>
-      <c r="Z8" s="193"/>
-      <c r="AA8" s="193"/>
-      <c r="AB8" s="176" t="s">
+      <c r="I8" s="183"/>
+      <c r="J8" s="183"/>
+      <c r="K8" s="183"/>
+      <c r="L8" s="183"/>
+      <c r="M8" s="183"/>
+      <c r="N8" s="183"/>
+      <c r="O8" s="183"/>
+      <c r="P8" s="183"/>
+      <c r="Q8" s="183"/>
+      <c r="R8" s="183"/>
+      <c r="S8" s="183"/>
+      <c r="T8" s="183"/>
+      <c r="U8" s="183"/>
+      <c r="V8" s="183"/>
+      <c r="W8" s="183"/>
+      <c r="X8" s="183"/>
+      <c r="Y8" s="183"/>
+      <c r="Z8" s="183"/>
+      <c r="AA8" s="183"/>
+      <c r="AB8" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="AC8" s="176"/>
-      <c r="AD8" s="176"/>
-      <c r="AE8" s="176"/>
-      <c r="AF8" s="176"/>
-      <c r="AG8" s="176"/>
-      <c r="AH8" s="176"/>
-      <c r="AI8" s="176"/>
-      <c r="AJ8" s="176"/>
-      <c r="AK8" s="176"/>
-      <c r="AL8" s="176"/>
-      <c r="AM8" s="176"/>
-      <c r="AN8" s="176"/>
-      <c r="AO8" s="176"/>
-      <c r="AP8" s="176"/>
-      <c r="AQ8" s="177" t="s">
+      <c r="AC8" s="195"/>
+      <c r="AD8" s="195"/>
+      <c r="AE8" s="195"/>
+      <c r="AF8" s="195"/>
+      <c r="AG8" s="195"/>
+      <c r="AH8" s="195"/>
+      <c r="AI8" s="195"/>
+      <c r="AJ8" s="195"/>
+      <c r="AK8" s="195"/>
+      <c r="AL8" s="195"/>
+      <c r="AM8" s="195"/>
+      <c r="AN8" s="195"/>
+      <c r="AO8" s="195"/>
+      <c r="AP8" s="195"/>
+      <c r="AQ8" s="196" t="s">
         <v>7</v>
       </c>
-      <c r="AR8" s="177"/>
-      <c r="AS8" s="177"/>
-      <c r="AT8" s="177"/>
-      <c r="AU8" s="177"/>
-      <c r="AV8" s="177"/>
-      <c r="AW8" s="177"/>
-      <c r="AX8" s="177"/>
-      <c r="AY8" s="177"/>
-      <c r="AZ8" s="177"/>
-      <c r="BA8" s="177"/>
-      <c r="BB8" s="177"/>
-      <c r="BC8" s="177"/>
-      <c r="BD8" s="177"/>
-      <c r="BE8" s="177"/>
-      <c r="BF8" s="177"/>
-      <c r="BG8" s="177"/>
-      <c r="BH8" s="177"/>
-      <c r="BI8" s="177"/>
-      <c r="BJ8" s="177"/>
-      <c r="BK8" s="177"/>
-      <c r="BL8" s="177"/>
-      <c r="BM8" s="177"/>
-      <c r="BN8" s="177"/>
-      <c r="BO8" s="177"/>
-      <c r="BP8" s="177"/>
-      <c r="BQ8" s="177"/>
-      <c r="BR8" s="177"/>
-      <c r="BS8" s="177"/>
-      <c r="BT8" s="177"/>
-      <c r="BU8" s="177"/>
-      <c r="BV8" s="177"/>
-      <c r="BW8" s="177"/>
-      <c r="BX8" s="177"/>
-      <c r="BY8" s="177"/>
-      <c r="BZ8" s="178" t="s">
+      <c r="AR8" s="196"/>
+      <c r="AS8" s="196"/>
+      <c r="AT8" s="196"/>
+      <c r="AU8" s="196"/>
+      <c r="AV8" s="196"/>
+      <c r="AW8" s="196"/>
+      <c r="AX8" s="196"/>
+      <c r="AY8" s="196"/>
+      <c r="AZ8" s="196"/>
+      <c r="BA8" s="196"/>
+      <c r="BB8" s="196"/>
+      <c r="BC8" s="196"/>
+      <c r="BD8" s="196"/>
+      <c r="BE8" s="196"/>
+      <c r="BF8" s="196"/>
+      <c r="BG8" s="196"/>
+      <c r="BH8" s="196"/>
+      <c r="BI8" s="196"/>
+      <c r="BJ8" s="196"/>
+      <c r="BK8" s="196"/>
+      <c r="BL8" s="196"/>
+      <c r="BM8" s="196"/>
+      <c r="BN8" s="196"/>
+      <c r="BO8" s="196"/>
+      <c r="BP8" s="196"/>
+      <c r="BQ8" s="196"/>
+      <c r="BR8" s="196"/>
+      <c r="BS8" s="196"/>
+      <c r="BT8" s="196"/>
+      <c r="BU8" s="196"/>
+      <c r="BV8" s="196"/>
+      <c r="BW8" s="196"/>
+      <c r="BX8" s="196"/>
+      <c r="BY8" s="196"/>
+      <c r="BZ8" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="CA8" s="178"/>
-      <c r="CB8" s="178"/>
-      <c r="CC8" s="178"/>
-      <c r="CD8" s="178"/>
-      <c r="CE8" s="178"/>
-      <c r="CF8" s="178"/>
-      <c r="CG8" s="178"/>
-      <c r="CH8" s="178"/>
-      <c r="CI8" s="178"/>
-      <c r="CJ8" s="178"/>
-      <c r="CK8" s="178"/>
-      <c r="CL8" s="178"/>
-      <c r="CM8" s="178"/>
-      <c r="CN8" s="178"/>
-      <c r="CO8" s="178"/>
-      <c r="CP8" s="178"/>
-      <c r="CQ8" s="178"/>
-      <c r="CR8" s="178"/>
-      <c r="CS8" s="179"/>
+      <c r="CA8" s="197"/>
+      <c r="CB8" s="197"/>
+      <c r="CC8" s="197"/>
+      <c r="CD8" s="197"/>
+      <c r="CE8" s="197"/>
+      <c r="CF8" s="197"/>
+      <c r="CG8" s="197"/>
+      <c r="CH8" s="197"/>
+      <c r="CI8" s="197"/>
+      <c r="CJ8" s="197"/>
+      <c r="CK8" s="197"/>
+      <c r="CL8" s="197"/>
+      <c r="CM8" s="197"/>
+      <c r="CN8" s="197"/>
+      <c r="CO8" s="197"/>
+      <c r="CP8" s="197"/>
+      <c r="CQ8" s="197"/>
+      <c r="CR8" s="197"/>
+      <c r="CS8" s="198"/>
     </row>
     <row r="9" spans="2:107" x14ac:dyDescent="0.25">
       <c r="B9" s="34" t="s">
@@ -3256,132 +3259,132 @@
       <c r="G9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="186" t="s">
+      <c r="H9" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="187"/>
-      <c r="J9" s="187"/>
-      <c r="K9" s="187"/>
-      <c r="L9" s="188"/>
-      <c r="M9" s="189" t="s">
+      <c r="I9" s="177"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="177"/>
+      <c r="L9" s="178"/>
+      <c r="M9" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="190"/>
-      <c r="O9" s="190"/>
-      <c r="P9" s="190"/>
-      <c r="Q9" s="188"/>
-      <c r="R9" s="189" t="s">
+      <c r="N9" s="180"/>
+      <c r="O9" s="180"/>
+      <c r="P9" s="180"/>
+      <c r="Q9" s="178"/>
+      <c r="R9" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="190"/>
-      <c r="T9" s="190"/>
-      <c r="U9" s="190"/>
-      <c r="V9" s="191"/>
-      <c r="W9" s="189" t="s">
+      <c r="S9" s="180"/>
+      <c r="T9" s="180"/>
+      <c r="U9" s="180"/>
+      <c r="V9" s="181"/>
+      <c r="W9" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="X9" s="190"/>
-      <c r="Y9" s="190"/>
-      <c r="Z9" s="190"/>
-      <c r="AA9" s="191"/>
-      <c r="AB9" s="194" t="s">
+      <c r="X9" s="180"/>
+      <c r="Y9" s="180"/>
+      <c r="Z9" s="180"/>
+      <c r="AA9" s="181"/>
+      <c r="AB9" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="AC9" s="195"/>
-      <c r="AD9" s="195"/>
-      <c r="AE9" s="195"/>
-      <c r="AF9" s="196"/>
-      <c r="AG9" s="194" t="s">
+      <c r="AC9" s="185"/>
+      <c r="AD9" s="185"/>
+      <c r="AE9" s="185"/>
+      <c r="AF9" s="186"/>
+      <c r="AG9" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="AH9" s="195"/>
-      <c r="AI9" s="195"/>
-      <c r="AJ9" s="195"/>
-      <c r="AK9" s="197"/>
-      <c r="AL9" s="194" t="s">
+      <c r="AH9" s="185"/>
+      <c r="AI9" s="185"/>
+      <c r="AJ9" s="185"/>
+      <c r="AK9" s="187"/>
+      <c r="AL9" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="AM9" s="195"/>
-      <c r="AN9" s="195"/>
-      <c r="AO9" s="195"/>
-      <c r="AP9" s="197"/>
-      <c r="AQ9" s="180" t="s">
+      <c r="AM9" s="185"/>
+      <c r="AN9" s="185"/>
+      <c r="AO9" s="185"/>
+      <c r="AP9" s="187"/>
+      <c r="AQ9" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="AR9" s="181"/>
-      <c r="AS9" s="181"/>
-      <c r="AT9" s="181"/>
-      <c r="AU9" s="198"/>
-      <c r="AV9" s="180" t="s">
+      <c r="AR9" s="174"/>
+      <c r="AS9" s="174"/>
+      <c r="AT9" s="174"/>
+      <c r="AU9" s="188"/>
+      <c r="AV9" s="173" t="s">
         <v>22</v>
       </c>
-      <c r="AW9" s="181"/>
-      <c r="AX9" s="181"/>
-      <c r="AY9" s="181"/>
-      <c r="AZ9" s="182"/>
-      <c r="BA9" s="180" t="s">
+      <c r="AW9" s="174"/>
+      <c r="AX9" s="174"/>
+      <c r="AY9" s="174"/>
+      <c r="AZ9" s="175"/>
+      <c r="BA9" s="173" t="s">
         <v>23</v>
       </c>
-      <c r="BB9" s="181"/>
-      <c r="BC9" s="181"/>
-      <c r="BD9" s="181"/>
-      <c r="BE9" s="182"/>
-      <c r="BF9" s="180" t="s">
+      <c r="BB9" s="174"/>
+      <c r="BC9" s="174"/>
+      <c r="BD9" s="174"/>
+      <c r="BE9" s="175"/>
+      <c r="BF9" s="173" t="s">
         <v>24</v>
       </c>
-      <c r="BG9" s="181"/>
-      <c r="BH9" s="181"/>
-      <c r="BI9" s="181"/>
-      <c r="BJ9" s="182"/>
-      <c r="BK9" s="180" t="s">
+      <c r="BG9" s="174"/>
+      <c r="BH9" s="174"/>
+      <c r="BI9" s="174"/>
+      <c r="BJ9" s="175"/>
+      <c r="BK9" s="173" t="s">
         <v>25</v>
       </c>
-      <c r="BL9" s="181"/>
-      <c r="BM9" s="181"/>
-      <c r="BN9" s="181"/>
-      <c r="BO9" s="182"/>
-      <c r="BP9" s="180" t="s">
+      <c r="BL9" s="174"/>
+      <c r="BM9" s="174"/>
+      <c r="BN9" s="174"/>
+      <c r="BO9" s="175"/>
+      <c r="BP9" s="173" t="s">
         <v>61</v>
       </c>
-      <c r="BQ9" s="181"/>
-      <c r="BR9" s="181"/>
-      <c r="BS9" s="181"/>
-      <c r="BT9" s="182"/>
-      <c r="BU9" s="180" t="s">
+      <c r="BQ9" s="174"/>
+      <c r="BR9" s="174"/>
+      <c r="BS9" s="174"/>
+      <c r="BT9" s="175"/>
+      <c r="BU9" s="173" t="s">
         <v>62</v>
       </c>
-      <c r="BV9" s="181"/>
-      <c r="BW9" s="181"/>
-      <c r="BX9" s="181"/>
-      <c r="BY9" s="182"/>
-      <c r="BZ9" s="170" t="s">
+      <c r="BV9" s="174"/>
+      <c r="BW9" s="174"/>
+      <c r="BX9" s="174"/>
+      <c r="BY9" s="175"/>
+      <c r="BZ9" s="189" t="s">
         <v>63</v>
       </c>
-      <c r="CA9" s="171"/>
-      <c r="CB9" s="171"/>
-      <c r="CC9" s="171"/>
-      <c r="CD9" s="172"/>
-      <c r="CE9" s="170" t="s">
+      <c r="CA9" s="190"/>
+      <c r="CB9" s="190"/>
+      <c r="CC9" s="190"/>
+      <c r="CD9" s="191"/>
+      <c r="CE9" s="189" t="s">
         <v>64</v>
       </c>
-      <c r="CF9" s="171"/>
-      <c r="CG9" s="171"/>
-      <c r="CH9" s="171"/>
-      <c r="CI9" s="172"/>
-      <c r="CJ9" s="170" t="s">
+      <c r="CF9" s="190"/>
+      <c r="CG9" s="190"/>
+      <c r="CH9" s="190"/>
+      <c r="CI9" s="191"/>
+      <c r="CJ9" s="189" t="s">
         <v>65</v>
       </c>
-      <c r="CK9" s="171"/>
-      <c r="CL9" s="171"/>
-      <c r="CM9" s="171"/>
-      <c r="CN9" s="172"/>
-      <c r="CO9" s="170" t="s">
+      <c r="CK9" s="190"/>
+      <c r="CL9" s="190"/>
+      <c r="CM9" s="190"/>
+      <c r="CN9" s="191"/>
+      <c r="CO9" s="189" t="s">
         <v>66</v>
       </c>
-      <c r="CP9" s="171"/>
-      <c r="CQ9" s="171"/>
-      <c r="CR9" s="171"/>
-      <c r="CS9" s="172"/>
+      <c r="CP9" s="190"/>
+      <c r="CQ9" s="190"/>
+      <c r="CR9" s="190"/>
+      <c r="CS9" s="191"/>
     </row>
     <row r="10" spans="2:107" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="39" t="s">
@@ -3798,11 +3801,21 @@
       <c r="G12" s="18">
         <v>1</v>
       </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="83"/>
+      <c r="H12" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="83" t="s">
+        <v>77</v>
+      </c>
       <c r="M12" s="89"/>
       <c r="N12" s="69"/>
       <c r="O12" s="69"/>
@@ -3914,11 +3927,21 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="57"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="92"/>
+      <c r="M13" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="O13" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="92" t="s">
+        <v>77</v>
+      </c>
       <c r="R13" s="16"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -4030,11 +4053,21 @@
       <c r="O14" s="69"/>
       <c r="P14" s="69"/>
       <c r="Q14" s="90"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="83"/>
+      <c r="R14" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="S14" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="T14" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="U14" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="V14" s="83" t="s">
+        <v>77</v>
+      </c>
       <c r="W14" s="89"/>
       <c r="X14" s="69"/>
       <c r="Y14" s="69"/>
@@ -4146,11 +4179,21 @@
       <c r="T15" s="57"/>
       <c r="U15" s="57"/>
       <c r="V15" s="57"/>
-      <c r="W15" s="91"/>
-      <c r="X15" s="76"/>
-      <c r="Y15" s="76"/>
-      <c r="Z15" s="76"/>
-      <c r="AA15" s="92"/>
+      <c r="W15" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="X15" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y15" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z15" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA15" s="92" t="s">
+        <v>77</v>
+      </c>
       <c r="AB15" s="16"/>
       <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
@@ -4367,11 +4410,21 @@
       <c r="Y17" s="69"/>
       <c r="Z17" s="69"/>
       <c r="AA17" s="90"/>
-      <c r="AB17" s="98"/>
-      <c r="AC17" s="77"/>
-      <c r="AD17" s="77"/>
-      <c r="AE17" s="77"/>
-      <c r="AF17" s="101"/>
+      <c r="AB17" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC17" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD17" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE17" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF17" s="101" t="s">
+        <v>77</v>
+      </c>
       <c r="AG17" s="105"/>
       <c r="AH17" s="8"/>
       <c r="AI17" s="8"/>
@@ -4483,11 +4536,21 @@
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
       <c r="AF18" s="57"/>
-      <c r="AG18" s="107"/>
-      <c r="AH18" s="77"/>
-      <c r="AI18" s="77"/>
-      <c r="AJ18" s="77"/>
-      <c r="AK18" s="108"/>
+      <c r="AG18" s="107" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH18" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI18" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ18" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK18" s="108" t="s">
+        <v>77</v>
+      </c>
       <c r="AL18" s="16"/>
       <c r="AM18" s="7"/>
       <c r="AN18" s="7"/>
@@ -4599,11 +4662,21 @@
       <c r="AI19" s="8"/>
       <c r="AJ19" s="8"/>
       <c r="AK19" s="106"/>
-      <c r="AL19" s="98"/>
-      <c r="AM19" s="77"/>
-      <c r="AN19" s="77"/>
-      <c r="AO19" s="77"/>
-      <c r="AP19" s="101"/>
+      <c r="AL19" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM19" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN19" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO19" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP19" s="101" t="s">
+        <v>77</v>
+      </c>
       <c r="AQ19" s="113"/>
       <c r="AR19" s="73"/>
       <c r="AS19" s="73"/>
@@ -4776,14 +4849,14 @@
         <v>44676</v>
       </c>
       <c r="E21" s="50">
-        <v>44687</v>
+        <v>44694</v>
       </c>
       <c r="F21" s="25">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G21" s="18">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="7"/>
@@ -4820,21 +4893,41 @@
       <c r="AN21" s="7"/>
       <c r="AO21" s="7"/>
       <c r="AP21" s="57"/>
-      <c r="AQ21" s="115"/>
-      <c r="AR21" s="78"/>
-      <c r="AS21" s="78"/>
-      <c r="AT21" s="78"/>
-      <c r="AU21" s="116"/>
-      <c r="AV21" s="112"/>
-      <c r="AW21" s="78"/>
-      <c r="AX21" s="78"/>
-      <c r="AY21" s="78"/>
-      <c r="AZ21" s="120"/>
-      <c r="BA21" s="113"/>
-      <c r="BB21" s="73"/>
-      <c r="BC21" s="73"/>
-      <c r="BD21" s="73"/>
-      <c r="BE21" s="114"/>
+      <c r="AQ21" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR21" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS21" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT21" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU21" s="116" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV21" s="112" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW21" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX21" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY21" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ21" s="120" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA21" s="115"/>
+      <c r="BB21" s="115"/>
+      <c r="BC21" s="115"/>
+      <c r="BD21" s="115"/>
+      <c r="BE21" s="115"/>
       <c r="BF21" s="121"/>
       <c r="BG21" s="80"/>
       <c r="BH21" s="80"/>
@@ -4884,14 +4977,14 @@
         <v>75</v>
       </c>
       <c r="D22" s="49">
-        <v>44690</v>
+        <v>44697</v>
       </c>
       <c r="E22" s="50">
         <v>44701</v>
       </c>
       <c r="F22" s="25">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G22" s="18">
         <v>0</v>
@@ -4941,11 +5034,11 @@
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
       <c r="AZ22" s="57"/>
-      <c r="BA22" s="115"/>
-      <c r="BB22" s="78"/>
-      <c r="BC22" s="78"/>
-      <c r="BD22" s="78"/>
-      <c r="BE22" s="116"/>
+      <c r="BA22" s="113"/>
+      <c r="BB22" s="73"/>
+      <c r="BC22" s="73"/>
+      <c r="BD22" s="73"/>
+      <c r="BE22" s="114"/>
       <c r="BF22" s="112"/>
       <c r="BG22" s="78"/>
       <c r="BH22" s="78"/>
@@ -5654,6 +5747,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="CO9:CS9"/>
+    <mergeCell ref="CN6:CS6"/>
+    <mergeCell ref="AB8:AP8"/>
+    <mergeCell ref="AQ8:BY8"/>
+    <mergeCell ref="BZ8:CS8"/>
+    <mergeCell ref="BP9:BT9"/>
+    <mergeCell ref="BU9:BY9"/>
+    <mergeCell ref="BZ9:CD9"/>
+    <mergeCell ref="CE9:CI9"/>
+    <mergeCell ref="CJ9:CN9"/>
+    <mergeCell ref="AV9:AZ9"/>
     <mergeCell ref="H6:Z6"/>
     <mergeCell ref="AA6:AU6"/>
     <mergeCell ref="AV6:BQ6"/>
@@ -5670,17 +5774,6 @@
     <mergeCell ref="AG9:AK9"/>
     <mergeCell ref="AL9:AP9"/>
     <mergeCell ref="AQ9:AU9"/>
-    <mergeCell ref="CO9:CS9"/>
-    <mergeCell ref="CN6:CS6"/>
-    <mergeCell ref="AB8:AP8"/>
-    <mergeCell ref="AQ8:BY8"/>
-    <mergeCell ref="BZ8:CS8"/>
-    <mergeCell ref="BP9:BT9"/>
-    <mergeCell ref="BU9:BY9"/>
-    <mergeCell ref="BZ9:CD9"/>
-    <mergeCell ref="CE9:CI9"/>
-    <mergeCell ref="CJ9:CN9"/>
-    <mergeCell ref="AV9:AZ9"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G11:G28">
